--- a/Validation result/Final result.xlsx
+++ b/Validation result/Final result.xlsx
@@ -122,10 +122,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="H44" sqref="H44:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,21 +421,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -542,20 +542,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -662,20 +662,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -782,20 +782,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -902,20 +902,20 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1022,20 +1022,20 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="H31" s="1" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="H31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1142,20 +1142,20 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="H37" s="1" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="H37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1262,20 +1262,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="H43" s="1" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="H43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -1383,23 +1383,24 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="H31:L31"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="H37:L37"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="72" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>